--- a/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Excel/PlayerNumericConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>c</t>
   </si>
@@ -82,7 +82,7 @@
     <t>防御</t>
   </si>
   <si>
-    <t>生命</t>
+    <t>当前生命</t>
   </si>
   <si>
     <t>伤害</t>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>战斗力</t>
+  </si>
+  <si>
+    <t>是否存活</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+  </si>
+  <si>
+    <t>当前关卡</t>
   </si>
 </sst>
 </file>
@@ -724,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -742,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:G26"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1346,12 +1358,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="3:8">
@@ -1371,7 +1381,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>3008</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1399,25 +1409,45 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="7"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="7">
+        <v>3011</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="7">
+        <v>3010</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="7">
+        <v>3015</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>

--- a/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Excel/PlayerNumericConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>c</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>当前关卡</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>坐标X</t>
+  </si>
+  <si>
+    <t>坐标Z</t>
   </si>
 </sst>
 </file>
@@ -733,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -750,10 +759,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1103,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1409,13 +1421,13 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>3011</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>1</v>
       </c>
       <c r="F27" s="3"/>
@@ -1423,10 +1435,10 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>3010</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="3">
@@ -1439,10 +1451,10 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>3015</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="3">
@@ -1451,6 +1463,41 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="6">
+        <v>3016</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="14" spans="3:6">
+      <c r="C31" s="8">
+        <v>3017</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" ht="14" spans="3:6">
+      <c r="C32" s="8">
+        <v>3018</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Excel/PlayerNumericConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>c</t>
   </si>
@@ -103,13 +103,22 @@
     <t>当前关卡</t>
   </si>
   <si>
-    <t>速度</t>
-  </si>
-  <si>
     <t>坐标X</t>
   </si>
   <si>
     <t>坐标Z</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>复活时间</t>
+  </si>
+  <si>
+    <t>移动速度</t>
   </si>
 </sst>
 </file>
@@ -742,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -760,9 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1115,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H32"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E32"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1370,7 +1376,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1466,18 +1472,18 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="6">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="14" spans="3:6">
-      <c r="C31" s="8">
-        <v>3017</v>
+      <c r="C31" s="6">
+        <v>3018</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>30</v>
@@ -1485,19 +1491,55 @@
       <c r="E31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" ht="14" spans="3:6">
-      <c r="C32" s="8">
-        <v>3018</v>
+      <c r="C32" s="6">
+        <v>3021</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9"/>
+        <v>10000</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" ht="14" spans="3:6">
+      <c r="C33" s="6">
+        <v>3022</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" ht="14" spans="3:6">
+      <c r="C34" s="6">
+        <v>3023</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" ht="14" spans="3:6">
+      <c r="C35" s="6">
+        <v>3016</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Excel/PlayerNumericConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>c</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>移动速度</t>
+  </si>
+  <si>
+    <t>背包最大容量</t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -769,6 +772,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1121,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1541,6 +1550,17 @@
       </c>
       <c r="F35" s="8"/>
     </row>
+    <row r="36" ht="14" spans="3:5">
+      <c r="C36" s="9">
+        <v>3024</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
